--- a/participants/participant_35/participant_35_task_orders.xlsx
+++ b/participants/participant_35/participant_35_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16498731105160882" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16498731119710565" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16498731119720564" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16498731120200562" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16498731120830562" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16502912471239717" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16502912484098055" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16502912484108074" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1650291248473839" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16502912485358055" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16498731104730601.csv</t>
+          <t>go_stims-16502912470799797.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731104990935.csv</t>
+          <t>GNG_stims-16502912471059706.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16498731105000932.csv</t>
+          <t>go_stims-16502912471079772.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16498731105150938.csv</t>
+          <t>GNG_stims-16502912471219702.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16498731116010926.csv</t>
+          <t>OB-16502912481598032.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_4-16498731108590565.csv</t>
+          <t>TB-16502912482938063.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_5-1649873111294058.csv</t>
+          <t>OB-16502912477958055.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16498731119480557.csv</t>
+          <t>ZB-match_3-1650291247218973.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>OB-164987311156309.csv</t>
+          <t>TB-16502912483908033.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TB-1649873111917092.csv</t>
+          <t>ZB-match_3-16502912475398407.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-16498731116400945.csv</t>
+          <t>ZB-match_0-16502912472738118.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16498731114700584.csv</t>
+          <t>OB-1650291248000805.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_7-16498731105970895.csv</t>
+          <t>TB-16502912483438075.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-1649873111987056.csv</t>
+          <t>MM_stims-16502912484258044.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731119740562.csv</t>
+          <t>ZM_stims-16502912484128091.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1649873112003057.csv</t>
+          <t>MM_stims-16502912484578042.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731119880564.csv</t>
+          <t>ZM_stims-16502912484268327.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16498731120190563.csv</t>
+          <t>MM_stims-1650291248473839.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16498731120040562.csv</t>
+          <t>ZM_stims-1650291248458807.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731120510566.csv</t>
+          <t>SAT_stims-16502912484778109.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1649873112035056.csv</t>
+          <t>vSAT_stims-16502912485208127.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16498731120670564.csv</t>
+          <t>SAT_stims-16502912484898067.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16498731120230606.csv</t>
+          <t>vSAT_stims-16502912485058076.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_35/participant_35_task_orders.xlsx
+++ b/participants/participant_35/participant_35_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16502912471239717" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16502912484098055" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16502912484108074" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1650291248473839" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16502912485358055" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16504778646227603" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16504778662574086" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16504778662593708" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16504778663063753" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-1650477866367408" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16502912470799797.csv</t>
+          <t>go_stims-16504778645815277.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912471059706.csv</t>
+          <t>GNG_stims-16504778646067648.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16502912471079772.csv</t>
+          <t>go_stims-16504778646077642.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16502912471219702.csv</t>
+          <t>GNG_stims-1650477864621792.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>OB-16502912481598032.csv</t>
+          <t>TB-1650477866232372.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16502912482938063.csv</t>
+          <t>OB-16504778650847955.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16502912477958055.csv</t>
+          <t>ZB-match_4-16504778649477613.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_3-1650291247218973.csv</t>
+          <t>OB-16504778655667944.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TB-16502912483908033.csv</t>
+          <t>ZB-match_9-16504778647607622.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZB-match_3-16502912475398407.csv</t>
+          <t>OB-16504778653817942.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_0-16502912472738118.csv</t>
+          <t>ZB-match_3-16504778648207583.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-1650291248000805.csv</t>
+          <t>TB-16504778656367936.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16502912483438075.csv</t>
+          <t>TB-1650477865757374.csv</t>
         </is>
       </c>
     </row>
@@ -632,7 +632,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>eyes open</t>
+          <t>eyes closed</t>
         </is>
       </c>
     </row>
@@ -642,7 +642,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>eyes closed</t>
+          <t>eyes open</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16502912484258044.csv</t>
+          <t>MM_stims-16504778662734058.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912484128091.csv</t>
+          <t>ZM_stims-16504778662613711.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16502912484578042.csv</t>
+          <t>MM_stims-16504778662894046.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16502912484268327.csv</t>
+          <t>ZM_stims-16504778662743728.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650291248473839.csv</t>
+          <t>MM_stims-1650477866305405.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650291248458807.csv</t>
+          <t>ZM_stims-16504778662894046.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912484778109.csv</t>
+          <t>vSAT_stims-1650477866352405.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912485208127.csv</t>
+          <t>SAT_stims-1650477866321406.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16502912484898067.csv</t>
+          <t>vSAT_stims-16504778663363717.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16502912485058076.csv</t>
+          <t>SAT_stims-16504778663104086.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_35/participant_35_task_orders.xlsx
+++ b/participants/participant_35/participant_35_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16504778646227603" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16504778662574086" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16504778662593708" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16504778663063753" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-1650477866367408" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16509961563752298" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1650996159753573" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1650996159753573" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16509961598096113" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16509961598736072" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16504778645815277.csv</t>
+          <t>go_stims-16509961563351939.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16504778646067648.csv</t>
+          <t>GNG_stims-16509961563592303.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16504778646077642.csv</t>
+          <t>go_stims-16509961563592303.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-1650477864621792.csv</t>
+          <t>GNG_stims-16509961563752298.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-1650477866232372.csv</t>
+          <t>ZB-match_5-16509961564951947.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>OB-16504778650847955.csv</t>
+          <t>ZB-match_2-16509961564552293.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ZB-match_4-16504778649477613.csv</t>
+          <t>OB-16509961572732677.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>OB-16504778655667944.csv</t>
+          <t>TB-16509961597376022.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_9-16504778647607622.csv</t>
+          <t>ZB-match_1-16509961566492963.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16504778653817942.csv</t>
+          <t>OB-16509961576172962.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ZB-match_3-16504778648207583.csv</t>
+          <t>TB-1650996157737259.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-16504778656367936.csv</t>
+          <t>OB-16509961573132637.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-1650477865757374.csv</t>
+          <t>TB-16509961595696118.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16504778662734058.csv</t>
+          <t>MM_stims-16509961597775793.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778662613711.csv</t>
+          <t>ZM_stims-1650996159753573.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16504778662894046.csv</t>
+          <t>MM_stims-1650996159793608.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778662743728.csv</t>
+          <t>ZM_stims-16509961597775793.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1650477866305405.csv</t>
+          <t>MM_stims-16509961598096113.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16504778662894046.csv</t>
+          <t>ZM_stims-1650996159793608.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650477866352405.csv</t>
+          <t>vSAT_stims-1650996159857575.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-1650477866321406.csv</t>
+          <t>SAT_stims-16509961598256018.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-16504778663363717.csv</t>
+          <t>SAT_stims-16509961598096113.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16504778663104086.csv</t>
+          <t>vSAT_stims-16509961598415728.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_35/participant_35_task_orders.xlsx
+++ b/participants/participant_35/participant_35_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16509961563752298" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1650996159753573" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1650996159753573" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16509961598096113" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16509961598736072" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-1651168757207226" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-16511687600817351" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-16511687600837328" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16511687601308706" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16511687602141945" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16509961563351939.csv</t>
+          <t>go_stims-1651168757170438.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961563592303.csv</t>
+          <t>GNG_stims-16511687571884568.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16509961563592303.csv</t>
+          <t>go_stims-16511687571884568.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16509961563752298.csv</t>
+          <t>GNG_stims-16511687572052257.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ZB-match_5-16509961564951947.csv</t>
+          <t>TB-16511687600596895.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZB-match_2-16509961564552293.csv</t>
+          <t>TB-16511687597424212.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16509961572732677.csv</t>
+          <t>OB-16511687586097894.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TB-16509961597376022.csv</t>
+          <t>ZB-match_1-16511687573053324.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_1-16509961566492963.csv</t>
+          <t>ZB-match_9-16511687574727373.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16509961576172962.csv</t>
+          <t>OB-16511687579176607.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TB-1650996157737259.csv</t>
+          <t>OB-16511687577229903.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>OB-16509961573132637.csv</t>
+          <t>TB-165116875950569.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>TB-16509961595696118.csv</t>
+          <t>ZB-match_4-1651168757388458.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16509961597775793.csv</t>
+          <t>MM_stims-16511687600976956.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996159753573.csv</t>
+          <t>ZM_stims-16511687600848298.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1650996159793608.csv</t>
+          <t>MM_stims-1651168760114555.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16509961597775793.csv</t>
+          <t>ZM_stims-16511687600976956.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16509961598096113.csv</t>
+          <t>MM_stims-1651168760129908.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-1650996159793608.csv</t>
+          <t>ZM_stims-16511687601155572.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1650996159857575.csv</t>
+          <t>vSAT_stims-1651168760179355.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961598256018.csv</t>
+          <t>SAT_stims-16511687601633203.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16509961598096113.csv</t>
+          <t>SAT_stims-16511687601358035.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16509961598415728.csv</t>
+          <t>vSAT_stims-16511687601985297.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_35/participant_35_task_orders.xlsx
+++ b/participants/participant_35/participant_35_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-1651168757207226" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-16511687600817351" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-16511687600837328" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-16511687601308706" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16511687602141945" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="GNG_TO-16512555831194756" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NB_TO-1651255585229552" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="RS_TO-1651255585230561" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-1651255585287304" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="vSAT_TO-16512555853492324" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-1651168757170438.csv</t>
+          <t>go_stims-16512555830796323.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687571884568.csv</t>
+          <t>GNG_stims-16512555831038547.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16511687571884568.csv</t>
+          <t>go_stims-16512555831038547.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16511687572052257.csv</t>
+          <t>GNG_stims-16512555831194756.csv</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TB-16511687600596895.csv</t>
+          <t>TB-1651255585028298.csv</t>
         </is>
       </c>
     </row>
@@ -526,7 +526,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TB-16511687597424212.csv</t>
+          <t>OB-16512555837707882.csv</t>
         </is>
       </c>
     </row>
@@ -536,7 +536,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>OB-16511687586097894.csv</t>
+          <t>ZB-match_0-16512555836697295.csv</t>
         </is>
       </c>
     </row>
@@ -546,7 +546,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZB-match_1-16511687573053324.csv</t>
+          <t>OB-16512555839997113.csv</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ZB-match_9-16511687574727373.csv</t>
+          <t>TB-16512555852115536.csv</t>
         </is>
       </c>
     </row>
@@ -566,7 +566,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>OB-16511687579176607.csv</t>
+          <t>ZB-match_2-1651255583458377.csv</t>
         </is>
       </c>
     </row>
@@ -576,7 +576,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>OB-16511687577229903.csv</t>
+          <t>TB-16512555846689126.csv</t>
         </is>
       </c>
     </row>
@@ -586,7 +586,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>TB-165116875950569.csv</t>
+          <t>ZB-match_6-16512555833310513.csv</t>
         </is>
       </c>
     </row>
@@ -596,7 +596,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ZB-match_4-1651168757388458.csv</t>
+          <t>OB-1651255584419442.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +678,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16511687600976956.csv</t>
+          <t>MM_stims-16512555852493315.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +688,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687600848298.csv</t>
+          <t>ZM_stims-16512555852325563.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +698,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-1651168760114555.csv</t>
+          <t>MM_stims-16512555852708528.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +708,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687600976956.csv</t>
+          <t>ZM_stims-16512555852493315.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-1651168760129908.csv</t>
+          <t>MM_stims-16512555852863033.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +728,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16511687601155572.csv</t>
+          <t>ZM_stims-16512555852708528.csv</t>
         </is>
       </c>
     </row>
@@ -764,7 +764,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651168760179355.csv</t>
+          <t>SAT_stims-16512555852903044.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +774,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687601633203.csv</t>
+          <t>vSAT_stims-1651255585319236.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +784,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SAT_stims-16511687601358035.csv</t>
+          <t>vSAT_stims-1651255585333234.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +794,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>vSAT_stims-16511687601985297.csv</t>
+          <t>SAT_stims-16512555853022342.csv</t>
         </is>
       </c>
     </row>

--- a/participants/participant_35/participant_35_task_orders.xlsx
+++ b/participants/participant_35/participant_35_task_orders.xlsx
@@ -7,11 +7,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="GNG_TO-16512555831194756" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NB_TO-1651255585229552" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="RS_TO-1651255585230561" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="TOL_TO-1651255585287304" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="vSAT_TO-16512555853492324" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="vSAT_TO-16515890144544935" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RS_TO-16515890144544935" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="GNG_TO-1651589014485743" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="TOL_TO-16515890145326183" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="NB_TO-16515890167309248" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -450,7 +450,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>go_stims-16512555830796323.csv</t>
+          <t>vSAT_stims-1651589014423244.csv</t>
         </is>
       </c>
     </row>
@@ -460,7 +460,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555831038547.csv</t>
+          <t>SAT_stims-1651589014391993.csv</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>go_stims-16512555831038547.csv</t>
+          <t>SAT_stims-16515890144076183.csv</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>GNG_stims-16512555831194756.csv</t>
+          <t>vSAT_stims-16515890144388692.csv</t>
         </is>
       </c>
     </row>
@@ -490,122 +490,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>task_order</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>TB-1651255585028298.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>OB-16512555837707882.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>ZB-match_0-16512555836697295.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>OB-16512555839997113.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>TB-16512555852115536.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ZB-match_2-1651255583458377.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>TB-16512555846689126.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ZB-match_6-16512555833310513.csv</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>OB-1651255584419442.csv</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,6 +527,72 @@
       <c r="B3" t="inlineStr">
         <is>
           <t>eyes open</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>task_order</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>go_stims-16515890144544935.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>GNG_stims-1651589014470118.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>go_stims-1651589014470118.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>GNG_stims-1651589014485743.csv</t>
         </is>
       </c>
     </row>
@@ -678,7 +628,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>MM_stims-16512555852493315.csv</t>
+          <t>MM_stims-16515890145013683.csv</t>
         </is>
       </c>
     </row>
@@ -688,7 +638,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555852325563.csv</t>
+          <t>ZM_stims-1651589014485743.csv</t>
         </is>
       </c>
     </row>
@@ -698,7 +648,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>MM_stims-16512555852708528.csv</t>
+          <t>MM_stims-1651589014516994.csv</t>
         </is>
       </c>
     </row>
@@ -708,7 +658,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555852493315.csv</t>
+          <t>ZM_stims-16515890145013683.csv</t>
         </is>
       </c>
     </row>
@@ -718,7 +668,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>MM_stims-16512555852863033.csv</t>
+          <t>MM_stims-16515890145326183.csv</t>
         </is>
       </c>
     </row>
@@ -728,7 +678,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ZM_stims-16512555852708528.csv</t>
+          <t>ZM_stims-1651589014516994.csv</t>
         </is>
       </c>
     </row>
@@ -743,7 +693,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -764,7 +714,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555852903044.csv</t>
+          <t>TB-16515890160841186.csv</t>
         </is>
       </c>
     </row>
@@ -774,7 +724,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255585319236.csv</t>
+          <t>OB-16515890160060296.csv</t>
         </is>
       </c>
     </row>
@@ -784,7 +734,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>vSAT_stims-1651255585333234.csv</t>
+          <t>TB-16515890166371741.csv</t>
         </is>
       </c>
     </row>
@@ -794,7 +744,57 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SAT_stims-16512555853022342.csv</t>
+          <t>ZB-match_3-16515890147625074.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>OB-16515890149330254.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>ZB-match_3-16515890146353676.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>OB-1651589015378874.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ZB-match_6-16515890147868676.csv</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>TB-16515890167152994.csv</t>
         </is>
       </c>
     </row>
